--- a/biology/Botanique/Ortega_(cépage)/Ortega_(cépage).xlsx
+++ b/biology/Botanique/Ortega_(cépage)/Ortega_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ortega_(c%C3%A9page)</t>
+          <t>Ortega_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ortega est un cépage de cuve allemand de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ortega_(c%C3%A9page)</t>
+          <t>Ortega_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cépage est une obtention de Hans Breider dans l'institut Bayerische Landesanstalt für Weinbau und Gartenbau à Veitshöchheim près de Würzburg. L'origine génétique est vérifiée : c'est un croisement des cépages müller-thurgau x siegerrebe réalisé à Alzey en 1948. Le cépage est autorisé dans de nombreux Länder en Allemagne. La superficie plantée est en régression passant de 1.250 hectares en 1994 à 951 hectares en 2001. En Belgique, il est autorisé dans les AOCs Côtes de Sambre et Meuse [1], Hageland [2] et Haspengouw [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage est une obtention de Hans Breider dans l'institut Bayerische Landesanstalt für Weinbau und Gartenbau à Veitshöchheim près de Würzburg. L'origine génétique est vérifiée : c'est un croisement des cépages müller-thurgau x siegerrebe réalisé à Alzey en 1948. Le cépage est autorisé dans de nombreux Länder en Allemagne. La superficie plantée est en régression passant de 1.250 hectares en 1994 à 951 hectares en 2001. En Belgique, il est autorisé dans les AOCs Côtes de Sambre et Meuse , Hageland  et Haspengouw .
 Le cépage est un hommage au philosophe espagnol José Ortega y Gasset.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ortega_(c%C3%A9page)</t>
+          <t>Ortega_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à nuances rougeâtre
 Feuilles adultes, à 5 lobes avec des sinus supérieurs profonds, en U ouvert, un sinus pétiolaire en lyre à base dégarnie, des dents anguleuses, moyennes, en deux séries, un limbe faiblement aranéeux.</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ortega_(c%C3%A9page)</t>
+          <t>Ortega_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque précoce : 6 - 8 jours après le chasselas.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ortega_(c%C3%A9page)</t>
+          <t>Ortega_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est pyramidale, ailée et compacte. Le cépage est de bonne vigueur et fertile. Il est résistant au mildiou mais assez sensible à la pourriture grise, à la chlorose, à la coulure et à l’oïdium. La saveur des baies est aromatique et très musquée servant ainsi aussi comme cépage de table. Le cépage donne des vins blancs secs manquant parfois d'acidité. En vendange tardive, la qualité des vins est élevée.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ortega_(c%C3%A9page)</t>
+          <t>Ortega_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ortega est connu sous le sigle Wü B 48-21-4
 </t>
